--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Working with others\PC-E-commerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahbr\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA52F92-B739-48EC-9B11-8C45B98225AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4E4FAB-AE1D-4CDF-B845-764145536610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tựa" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sheet13" sheetId="15" r:id="rId8"/>
     <sheet name="Sheet11" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -65,15 +65,9 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
     <t>TC2</t>
   </si>
   <si>
-    <t>Đăng ký</t>
-  </si>
-  <si>
     <t>Truy cập người dùng</t>
   </si>
   <si>
@@ -101,15 +95,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>1. Làm điều gì đó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Làm điều gì khác </t>
-  </si>
-  <si>
-    <t>3. Làm gì nữa</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -135,13 +120,355 @@
   </si>
   <si>
     <t>Tỷ lệ kiểm thử thành công</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Đăng nhập không thành công</t>
+  </si>
+  <si>
+    <t>Xác thực người dùng đăng nhập
+ thành công với thông tin hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo lỗi khi đăng nhập
+ thất bại với thông tin không hợp lệ.</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào "Đăng Nhập" trên thanh điều hướng.</t>
+  </si>
+  <si>
+    <t>2. Điền email hợp lệ.</t>
+  </si>
+  <si>
+    <t>3. Nhập mật khẩu hợp lệ.</t>
+  </si>
+  <si>
+    <t>4. Nhấn "Đăng Nhập".</t>
+  </si>
+  <si>
+    <t>2. Điền email không hợp lệ.</t>
+  </si>
+  <si>
+    <t>3. Nhập mật khẩu bất kỳ.</t>
+  </si>
+  <si>
+    <t>Không có</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Không có
+</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang chủ/danh mục sản phẩm, với tên người dùng hiển thị trên thanh điều hướng.</t>
+  </si>
+  <si>
+    <t>Báo rằng email hoặc mật khẩu đăng nhập không hợp lệ và vui long thử lại.</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công</t>
+  </si>
+  <si>
+    <t>Đăng ký không thành công</t>
+  </si>
+  <si>
+    <t>Xác thực người dùng có thể đăng ký thành công với thông tin hợp lệ.</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo lỗi khi đăng ký thất bại với thông tin không hợp lệ</t>
+  </si>
+  <si>
+    <t>Người dùng cần đăng kí tài khoản trước</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào "Đăng Kí" trên thanh điều hướng.</t>
+  </si>
+  <si>
+    <t>2. Điền họ tên hợp lệ.</t>
+  </si>
+  <si>
+    <t>3. Nhập email hợp lệ.</t>
+  </si>
+  <si>
+    <t>4. Nhập mật khẩu đủ điều kiện.</t>
+  </si>
+  <si>
+    <t>5. Nhấn "Đăng Ký".</t>
+  </si>
+  <si>
+    <t>Hệ thống tạo tài khoản mới và chuyển hướng người dùng đến trang chào mừng hoặc trang chủ.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi phù hợp, ví dụ "Email không hợp lệ" hoặc "Mật khẩu phải có ít nhất 8 ký tự".</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Đã thử nhiều lần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thử với các email sai định dạng
+</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Đăng kí thành công</t>
+  </si>
+  <si>
+    <t>Đăng kí không thành công</t>
+  </si>
+  <si>
+    <t>Đăng nhập bằng tài khoản mạng xã hội</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Đăng xuất thành công</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công dành cho admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập bằng tài khoản mạng xã hội
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập thành công dành cho admin
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra tính năng đăng nhập qua mạng xã hội</t>
+  </si>
+  <si>
+    <t>Kiểm tra tính năng đăng xuất</t>
+  </si>
+  <si>
+    <t>Xác thực admin đăng nhập hợp lệ</t>
+  </si>
+  <si>
+    <t>Người dùng đã có tài khoản mạng xã hội</t>
+  </si>
+  <si>
+    <t>Người dùng cần đăng nhập tài khoản trước</t>
+  </si>
+  <si>
+    <t>Người dùng cần được cấp tài khoản trước</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào một trong các biểu tượng mạng xã hội dưới câu "Hoặc đăng nhập bằng".</t>
+  </si>
+  <si>
+    <t>2. Điền email &amp; mật khẩu trên nền tảng đã chọn.</t>
+  </si>
+  <si>
+    <t>3. Nhấn nút xác nhận liên kết.</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào "Đăng Xuất" trên thanh điều hướng</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào "Đăng Nhập" trên thanh điều hướng</t>
+  </si>
+  <si>
+    <t>2. Điền email admin hợp lệ.</t>
+  </si>
+  <si>
+    <t>3. Điền mật khẩu admin hợp lệ.</t>
+  </si>
+  <si>
+    <t>4. Nhấn nút "Đăng Nhập".</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo xác nhận liên kết thành công và chuyển đến trang chủ với tên người dùng hiển thị trên thanh điều hướng.</t>
+  </si>
+  <si>
+    <t>Người dùng được đăng xuất và thanh điều hướng sẽ hiển thị "Đăng Nhập" thay cho tên người dùng.</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang chủ dành cho admin.</t>
+  </si>
+  <si>
+    <t>Không có gì xảy ra do tính năng chưa được cài đặt. Hiện tại, các biểu tượng có thể nhấn nhưng không thực hiện thao tác nào.</t>
+  </si>
+  <si>
+    <t>Tính năng đang chờ phát triển.</t>
+  </si>
+  <si>
+    <t>Chọn hình thức vận chuyển</t>
+  </si>
+  <si>
+    <t>Thanh toán không áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Thanh toán có áp dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Xác nhận rằng người dùng có thể chọn thành công hình thức vận chuyển cho đơn hàng</t>
+  </si>
+  <si>
+    <t>Xác minh rằng người dùng có thể thanh toán đơn hàng mà không cần sử dụng mã giảm giá</t>
+  </si>
+  <si>
+    <t>Đảm bảo rằng mã giảm giá có thể được áp dụng và được tính toán chính xác trong tổng thanh toán</t>
+  </si>
+  <si>
+    <t>- Người dùng đã đăng nhập vào tài khoản.
+- Trong giỏ hàng đã có ít nhất một sản phẩm sẵn sàng để thanh toán.</t>
+  </si>
+  <si>
+    <t>- Người dùng đã đăng nhập vào tài khoản.
+- Trong giỏ hàng đã có ít nhất một sản phẩm sẵn sàng để thanh toán.
+- Mã giảm giá hợp lệ còn hiệu lực.</t>
+  </si>
+  <si>
+    <t>1. Chọn một trong hai tùy chọn "radio button" cho hình thức vận chuyển.</t>
+  </si>
+  <si>
+    <t>1. Điền thông tin vận chuyển và thông tin thanh toán.</t>
+  </si>
+  <si>
+    <t>2. Nhấn "Thanh Toán".</t>
+  </si>
+  <si>
+    <t>2. Áp dụng mã giảm giá.</t>
+  </si>
+  <si>
+    <t>3. Nhấn "Thanh Toán".</t>
+  </si>
+  <si>
+    <t>Hệ thống ghi nhận và hiển thị lựa chọn của người dùng.</t>
+  </si>
+  <si>
+    <t>Hệ thống xử lý thanh toán và xác nhận rằng người dùng đã thanh toán thành công.</t>
+  </si>
+  <si>
+    <t>Hệ thống ghi nhận mã giảm giá, tính toán giảm giá chính xác và xác nhận thanh toán thành công cho đơn hàng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Thêm sản phẩm vào giỏ</t>
+  </si>
+  <si>
+    <t>Xem giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Xoá sản phẩm khỏi giỏ</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Xoá sạch giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đến trang thanh toán</t>
+  </si>
+  <si>
+    <t>Xác minh rằng người dùng có thể thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xác nhận rằng người dùng có thể xem giỏ hàng với các sản phẩm đã thêm</t>
+  </si>
+  <si>
+    <t>Đảm bảo rằng người dùng có thể xoá sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xác minh rằng người dùng có thể thay đổi số lượng sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đảm bảo rằng người dùng có thể xoá toàn bộ sản phẩm trong giỏ hàng với một thao tác duy nhất</t>
+  </si>
+  <si>
+    <t>Xác nhận rằng người dùng có thể tiếp tục đến bước thanh toán sau khi đã thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>- Người dùng đã đăng nhập vào tài khoản (nếu yêu cầu).</t>
+  </si>
+  <si>
+    <t>- Người dùng đã đăng nhập vào tài khoản (nếu yêu cầu).
+- Giỏ hàng có ít nhất một sản phẩm.</t>
+  </si>
+  <si>
+    <t>- Giỏ hàng có ít nhất một sản phẩm.</t>
+  </si>
+  <si>
+    <t>1. Chọn sản phẩm từ danh mục sản phẩm.</t>
+  </si>
+  <si>
+    <t>2. Nhấn nút "Thêm vào giỏ hàng".</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào biểu tượng giỏ hàng trên thanh điều hướng.</t>
+  </si>
+  <si>
+    <t>2. Chọn "Xem giỏ hàng".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nhấn vào biểu tượng thùng rác bên cạnh sản phẩm trong giỏ hàng.
+</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào nút tăng hoặc giảm số lượng sản phẩm bên cạnh tên sản phẩm trong giỏ hàng.</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào nút "Xoá sạch giỏ hàng".</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào nút "Thanh toán" hoặc "Hoàn tất đơn hàng" trong giỏ hàng.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo sản phẩm đã được thêm vào giỏ hàng.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng đến trang giỏ hàng, hiển thị đầy đủ các sản phẩm đã thêm.</t>
+  </si>
+  <si>
+    <t>Sản phẩm được xóa khỏi giỏ hàng và không còn xuất hiện trong danh sách sản phẩm trong giỏ hàng.</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm được cập nhật và tổng giá tiền cũng thay đổi tương ứng.</t>
+  </si>
+  <si>
+    <t>Tất cả sản phẩm trong giỏ hàng bị xoá, giỏ hàng trở về trạng thái rỗng.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng đến trang thanh toán, nơi người dùng có thể điền thông tin thanh toán và vận chuyển.</t>
+  </si>
+  <si>
+    <t>Quản lý giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ</t>
+  </si>
+  <si>
+    <t>Xoá sản phẩm khỏi giỏ</t>
+  </si>
+  <si>
+    <t>Thanh toán sản phẩm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +505,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -575,82 +916,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,71 +1048,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,77 +1373,74 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="26" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1097,399 +1454,1480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4CAA13-B9D1-459C-8FF0-85C6FDAF1006}">
-  <dimension ref="C1:E16"/>
+  <dimension ref="C1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44014DBE-8B0F-4ADD-A091-7C21E649B6F3}">
-  <dimension ref="A3:I9"/>
+  <dimension ref="A3:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="G4:G6"/>
+  <mergeCells count="59">
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="I17:I21"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495DD140-1072-46E8-8E3E-0C3482F74F78}">
-  <dimension ref="A3:I9"/>
+  <dimension ref="A3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C810073E-C941-4FD9-A2D4-3E7B6C425051}">
+  <dimension ref="A3:I21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="54">
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="A7:A9"/>
@@ -1505,158 +2943,9 @@
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C810073E-C941-4FD9-A2D4-3E7B6C425051}">
-  <dimension ref="A3:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1665,156 +2954,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71485D58-977D-4DA8-B83B-ED2BCA413BF1}">
   <dimension ref="E1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="33" t="s">
+    <row r="1" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="41"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="41"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="41"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="41"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E2:M3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="F13:H13"/>
@@ -1822,18 +3123,6 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="E2:M3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1847,7 +3136,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1859,7 +3148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1873,7 +3162,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
